--- a/MODELADO DATA WAREHOUSE.xlsx
+++ b/MODELADO DATA WAREHOUSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socop\Videos\REPOS TEMP\SS2-Proyecto1_202000194\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A407CC0-8B12-4F42-9E03-AD617BA1B568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9C0BA-C689-49E9-980F-7A0DFA2EA607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1500" windowWidth="15600" windowHeight="18720" xr2:uid="{34C82A7F-1EC8-4A8F-A64E-ED7C711791AD}"/>
   </bookViews>
@@ -562,7 +562,7 @@
   <dimension ref="F2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/MODELADO DATA WAREHOUSE.xlsx
+++ b/MODELADO DATA WAREHOUSE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\socop\Videos\REPOS TEMP\SS2-Proyecto1_202000194\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C9C0BA-C689-49E9-980F-7A0DFA2EA607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54013BFE-16D2-4523-B889-251520781B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-1500" windowWidth="15600" windowHeight="18720" xr2:uid="{34C82A7F-1EC8-4A8F-A64E-ED7C711791AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="39">
   <si>
     <t>Fecha</t>
   </si>
@@ -138,9 +138,6 @@
   </si>
   <si>
     <t>FECHA</t>
-  </si>
-  <si>
-    <t>CATEGORIA</t>
   </si>
   <si>
     <t>total</t>
@@ -193,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +221,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -245,6 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,7 +566,7 @@
   <dimension ref="F2:R21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,15 +658,16 @@
       <c r="H7" t="s">
         <v>5</v>
       </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="8" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8" s="6"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
     </row>
     <row r="9" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
@@ -675,9 +680,6 @@
         <f>_xlfn.CONCAT("id",H2)</f>
         <v>idPROVEEDOR</v>
       </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="10" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
@@ -687,7 +689,7 @@
         <v>15</v>
       </c>
       <c r="I10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="6:18" x14ac:dyDescent="0.25">
@@ -695,20 +697,23 @@
         <v>16</v>
       </c>
       <c r="I11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="6:18" x14ac:dyDescent="0.25">
       <c r="H12" s="5" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="1"/>
+        <v>37</v>
+      </c>
+      <c r="J12" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F13" s="3" t="s">
@@ -716,30 +721,25 @@
       </c>
       <c r="G13" s="1"/>
       <c r="H13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J13" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="6:18" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>17</v>
       </c>
-      <c r="J14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="6:18" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
+      <c r="J15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="6:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="F16" t="s">
@@ -752,8 +752,11 @@
         <f>_xlfn.CONCAT("id",F13)</f>
         <v>idCLIENTE</v>
       </c>
-    </row>
-    <row r="17" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F17" t="s">
         <v>20</v>
       </c>
@@ -761,15 +764,14 @@
         <v>15</v>
       </c>
       <c r="I17" t="str">
-        <f>_xlfn.CONCAT("id",J12)</f>
+        <f>_xlfn.CONCAT("id",J15)</f>
         <v>idVENDEDOR</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="6"/>
-    </row>
-    <row r="18" spans="6:11" x14ac:dyDescent="0.25">
+      <c r="J17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>21</v>
       </c>
@@ -781,10 +783,10 @@
         <v>idSUCURSAL</v>
       </c>
       <c r="J18" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="6:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H19" s="5" t="s">
         <v>0</v>
       </c>
@@ -793,18 +795,18 @@
         <v>idPRODUCTO</v>
       </c>
     </row>
-    <row r="20" spans="6:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" t="str">
         <f>_xlfn.CONCAT("id",J8)</f>
-        <v>idCATEGORIA</v>
-      </c>
-    </row>
-    <row r="21" spans="6:11" x14ac:dyDescent="0.25">
+        <v>id</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="I21" t="str">
-        <f>_xlfn.CONCAT("id",J17)</f>
+        <f>_xlfn.CONCAT("id",J11)</f>
         <v>idFECHA</v>
       </c>
     </row>
